--- a/biology/Microbiologie/Nakamurellales/Nakamurellales.xlsx
+++ b/biology/Microbiologie/Nakamurellales/Nakamurellales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nakamurellales forment un ordre de bactéries gram positives de la classe des Actinomycetes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Nakamurellales est composé de bactéries dont la coloration de Gram est positive[1]. Elles ne forment pas de spores et sont non mobiles. Les bactéries de cet ordre sont principalement de forme coccoïde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Nakamurellales est composé de bactéries dont la coloration de Gram est positive. Elles ne forment pas de spores et sont non mobiles. Les bactéries de cet ordre sont principalement de forme coccoïde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries de cet ordre sont présentes dans le sol[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries de cet ordre sont présentes dans le sol.
 </t>
         </is>
       </c>
@@ -573,14 +589,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Nakamurellales Sen et al. 2014[2].
-Le genre type est : Nakamurella Tao et al. 2004[2],[3].
-Étymologie
-L'étymologie de cet ordre est la suivante : Na.ka.mu.rel.la’les. N.L. fem. dim. n. Nakamurella, genre type de cet ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Nakamurellales, l'ordre des Nakamurella[2],[3].
-Liste des familles
-Selon la base taxonomique LPSN  (29 octobre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nakamurellales Sen et al. 2014.
+Le genre type est : Nakamurella Tao et al. 2004,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nakamurellales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nakamurellales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cet ordre est la suivante : Na.ka.mu.rel.la’les. N.L. fem. dim. n. Nakamurella, genre type de cet ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Nakamurellales, l'ordre des Nakamurella,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nakamurellales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nakamurellales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon la base taxonomique LPSN  (29 octobre 2023) :
 Nakamurellaceae Tao et al. 2004</t>
         </is>
       </c>
